--- a/Preprocessed Data/Claro-M.-Recto_Capt.-Vicente-Roa-FINAL-NAJUD.xlsx
+++ b/Preprocessed Data/Claro-M.-Recto_Capt.-Vicente-Roa-FINAL-NAJUD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Budz Aves\Documents\Research Things\Final Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E040E6-4C64-4574-A0C1-54C3A4331EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E025AAC-CA71-4B42-828A-F37706C54B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A139AC8C-9445-4167-B3D6-D99F9ED15635}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11835" xr2:uid="{A139AC8C-9445-4167-B3D6-D99F9ED15635}"/>
   </bookViews>
   <sheets>
     <sheet name="TVC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
   <si>
     <t>Time</t>
   </si>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -362,11 +367,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -409,6 +576,66 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D1911B-6375-4D3D-A628-E8315C57D9D4}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +962,7 @@
     <col min="1" max="12" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -778,43 +1005,53 @@
       <c r="N1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <v>40.748600000000003</v>
+        <v>16.299440000000001</v>
       </c>
       <c r="C2" s="15">
-        <v>33.952300000000001</v>
+        <v>13.580920000000001</v>
       </c>
       <c r="D2" s="15">
-        <v>30.572400000000002</v>
+        <v>12.228960000000001</v>
       </c>
       <c r="E2" s="16">
         <v>0</v>
       </c>
       <c r="F2" s="16">
-        <v>13.607200000000001</v>
+        <v>5.4428800000000006</v>
       </c>
       <c r="G2" s="15">
-        <v>20.410800000000002</v>
+        <v>8.1643200000000018</v>
       </c>
       <c r="H2" s="15">
-        <v>2.5476999999999999</v>
+        <v>1.01908</v>
       </c>
       <c r="I2" s="16">
-        <v>16.965199999999999</v>
+        <v>6.7860800000000001</v>
       </c>
       <c r="J2" s="15">
-        <v>0.8468</v>
+        <v>0.33872000000000002</v>
       </c>
       <c r="K2" s="15">
         <v>0</v>
       </c>
       <c r="L2" s="17">
-        <v>159.65100000000001</v>
+        <v>63.860400000000006</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>26</v>
@@ -823,42 +1060,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15">
-        <v>64.192999999999998</v>
+        <v>25.677199999999999</v>
       </c>
       <c r="C3" s="15">
-        <v>53.486499999999999</v>
+        <v>21.394600000000001</v>
       </c>
       <c r="D3" s="15">
-        <v>48.161999999999999</v>
+        <v>19.264800000000001</v>
       </c>
       <c r="E3" s="16">
         <v>0</v>
       </c>
       <c r="F3" s="16">
-        <v>21.436</v>
+        <v>8.5744000000000007</v>
       </c>
       <c r="G3" s="15">
-        <v>32.153999999999996</v>
+        <v>12.861599999999999</v>
       </c>
       <c r="H3" s="15">
-        <v>4.0134999999999996</v>
+        <v>1.6053999999999999</v>
       </c>
       <c r="I3" s="16">
-        <v>26.725999999999999</v>
+        <v>10.6904</v>
       </c>
       <c r="J3" s="15">
-        <v>1.3339999999999999</v>
+        <v>0.53359999999999996</v>
       </c>
       <c r="K3" s="15">
         <v>0</v>
       </c>
       <c r="L3" s="17">
-        <v>251.505</v>
+        <v>100.602</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>26</v>
@@ -867,42 +1104,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="15">
-        <v>89.312000000000012</v>
+        <v>35.724800000000009</v>
       </c>
       <c r="C4" s="15">
-        <v>74.415999999999997</v>
+        <v>29.766400000000001</v>
       </c>
       <c r="D4" s="15">
-        <v>67.007999999999996</v>
+        <v>26.8032</v>
       </c>
       <c r="E4" s="16">
         <v>0</v>
       </c>
       <c r="F4" s="16">
-        <v>29.824000000000002</v>
+        <v>11.929600000000001</v>
       </c>
       <c r="G4" s="15">
-        <v>44.736000000000004</v>
+        <v>17.894400000000001</v>
       </c>
       <c r="H4" s="15">
-        <v>5.5839999999999996</v>
+        <v>2.2336</v>
       </c>
       <c r="I4" s="16">
-        <v>37.183999999999997</v>
+        <v>14.8736</v>
       </c>
       <c r="J4" s="15">
-        <v>1.8559999999999999</v>
+        <v>0.74239999999999995</v>
       </c>
       <c r="K4" s="15">
         <v>0</v>
       </c>
       <c r="L4" s="17">
-        <v>349.91999999999996</v>
+        <v>139.96799999999999</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>26</v>
@@ -911,42 +1148,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="15">
-        <v>90.149300000000011</v>
+        <v>36.059720000000006</v>
       </c>
       <c r="C5" s="15">
-        <v>75.113650000000007</v>
+        <v>30.045460000000006</v>
       </c>
       <c r="D5" s="15">
-        <v>67.636200000000002</v>
+        <v>27.054480000000002</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
       </c>
       <c r="F5" s="16">
-        <v>30.1036</v>
+        <v>12.041440000000001</v>
       </c>
       <c r="G5" s="15">
-        <v>45.1554</v>
+        <v>18.062160000000002</v>
       </c>
       <c r="H5" s="15">
-        <v>5.6363500000000002</v>
+        <v>2.25454</v>
       </c>
       <c r="I5" s="16">
-        <v>37.532600000000002</v>
+        <v>15.013040000000002</v>
       </c>
       <c r="J5" s="15">
-        <v>1.8734</v>
+        <v>0.74936000000000003</v>
       </c>
       <c r="K5" s="15">
         <v>0</v>
       </c>
       <c r="L5" s="17">
-        <v>353.20049999999998</v>
+        <v>141.28020000000001</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>26</v>
@@ -955,42 +1192,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="15">
-        <v>84.567300000000003</v>
+        <v>33.826920000000001</v>
       </c>
       <c r="C6" s="15">
-        <v>70.462649999999996</v>
+        <v>28.18506</v>
       </c>
       <c r="D6" s="15">
-        <v>63.4482</v>
+        <v>25.379280000000001</v>
       </c>
       <c r="E6" s="16">
         <v>0</v>
       </c>
       <c r="F6" s="16">
-        <v>28.239600000000003</v>
+        <v>11.295840000000002</v>
       </c>
       <c r="G6" s="15">
-        <v>42.359400000000008</v>
+        <v>16.943760000000005</v>
       </c>
       <c r="H6" s="15">
-        <v>5.28735</v>
+        <v>2.1149400000000003</v>
       </c>
       <c r="I6" s="16">
-        <v>35.208599999999997</v>
+        <v>14.08344</v>
       </c>
       <c r="J6" s="15">
-        <v>1.7573999999999999</v>
+        <v>0.70296000000000003</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
       </c>
       <c r="L6" s="17">
-        <v>331.33049999999997</v>
+        <v>132.53219999999999</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>26</v>
@@ -999,42 +1236,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="15">
-        <v>75.0779</v>
+        <v>30.03116</v>
       </c>
       <c r="C7" s="15">
-        <v>62.555950000000003</v>
+        <v>25.022380000000002</v>
       </c>
       <c r="D7" s="15">
-        <v>56.328600000000002</v>
+        <v>22.531440000000003</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
       </c>
       <c r="F7" s="16">
-        <v>25.070800000000002</v>
+        <v>10.028320000000001</v>
       </c>
       <c r="G7" s="15">
-        <v>37.606200000000001</v>
+        <v>15.042480000000001</v>
       </c>
       <c r="H7" s="15">
-        <v>4.6940499999999998</v>
+        <v>1.8776200000000001</v>
       </c>
       <c r="I7" s="16">
-        <v>31.2578</v>
+        <v>12.503120000000001</v>
       </c>
       <c r="J7" s="15">
-        <v>1.5601999999999998</v>
+        <v>0.62407999999999997</v>
       </c>
       <c r="K7" s="15">
         <v>0</v>
       </c>
       <c r="L7" s="17">
-        <v>294.1515</v>
+        <v>117.6606</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>26</v>
@@ -1043,42 +1280,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="15">
-        <v>70.333200000000005</v>
+        <v>28.133280000000003</v>
       </c>
       <c r="C8" s="15">
-        <v>58.602600000000002</v>
+        <v>23.441040000000001</v>
       </c>
       <c r="D8" s="15">
-        <v>52.768799999999999</v>
+        <v>21.107520000000001</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
       </c>
       <c r="F8" s="16">
-        <v>23.4864</v>
+        <v>9.3945600000000002</v>
       </c>
       <c r="G8" s="15">
-        <v>35.229599999999998</v>
+        <v>14.091839999999999</v>
       </c>
       <c r="H8" s="15">
-        <v>4.3974000000000002</v>
+        <v>1.7589600000000001</v>
       </c>
       <c r="I8" s="16">
-        <v>29.282399999999999</v>
+        <v>11.712960000000001</v>
       </c>
       <c r="J8" s="15">
-        <v>1.4615999999999998</v>
+        <v>0.58463999999999994</v>
       </c>
       <c r="K8" s="15">
         <v>0</v>
       </c>
       <c r="L8" s="17">
-        <v>275.56200000000001</v>
+        <v>110.22480000000002</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>26</v>
@@ -1087,42 +1324,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="15">
-        <v>85.404600000000002</v>
+        <v>34.161840000000005</v>
       </c>
       <c r="C9" s="15">
-        <v>71.160300000000007</v>
+        <v>28.464120000000005</v>
       </c>
       <c r="D9" s="15">
-        <v>64.076400000000007</v>
+        <v>25.630560000000003</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
       </c>
       <c r="F9" s="16">
-        <v>28.519200000000001</v>
+        <v>11.407680000000001</v>
       </c>
       <c r="G9" s="15">
-        <v>42.778800000000004</v>
+        <v>17.111520000000002</v>
       </c>
       <c r="H9" s="15">
-        <v>5.3396999999999997</v>
+        <v>2.1358799999999998</v>
       </c>
       <c r="I9" s="16">
-        <v>35.557200000000002</v>
+        <v>14.222880000000002</v>
       </c>
       <c r="J9" s="15">
-        <v>1.7747999999999999</v>
+        <v>0.70992</v>
       </c>
       <c r="K9" s="15">
         <v>0</v>
       </c>
       <c r="L9" s="17">
-        <v>334.6110000000001</v>
+        <v>133.84440000000004</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>26</v>
@@ -1131,42 +1368,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="15">
-        <v>89.312000000000012</v>
+        <v>35.724800000000009</v>
       </c>
       <c r="C10" s="15">
-        <v>74.415999999999997</v>
+        <v>29.766400000000001</v>
       </c>
       <c r="D10" s="15">
-        <v>67.007999999999996</v>
+        <v>26.8032</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>29.824000000000002</v>
+        <v>11.929600000000001</v>
       </c>
       <c r="G10" s="15">
-        <v>44.736000000000004</v>
+        <v>17.894400000000001</v>
       </c>
       <c r="H10" s="15">
-        <v>5.5839999999999996</v>
+        <v>2.2336</v>
       </c>
       <c r="I10" s="16">
-        <v>37.183999999999997</v>
+        <v>14.8736</v>
       </c>
       <c r="J10" s="15">
-        <v>1.8559999999999999</v>
+        <v>0.74239999999999995</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
       </c>
       <c r="L10" s="17">
-        <v>349.91999999999996</v>
+        <v>139.96799999999999</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>26</v>
@@ -1175,42 +1412,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="15">
-        <v>91.26570000000001</v>
+        <v>36.506280000000004</v>
       </c>
       <c r="C11" s="15">
-        <v>76.043850000000006</v>
+        <v>30.417540000000002</v>
       </c>
       <c r="D11" s="15">
-        <v>68.473799999999997</v>
+        <v>27.389520000000001</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
       </c>
       <c r="F11" s="16">
-        <v>30.476400000000002</v>
+        <v>12.190560000000001</v>
       </c>
       <c r="G11" s="15">
-        <v>45.714600000000004</v>
+        <v>18.285840000000004</v>
       </c>
       <c r="H11" s="15">
-        <v>5.7061500000000001</v>
+        <v>2.2824599999999999</v>
       </c>
       <c r="I11" s="16">
-        <v>37.997399999999999</v>
+        <v>15.19896</v>
       </c>
       <c r="J11" s="15">
-        <v>1.8965999999999998</v>
+        <v>0.75863999999999998</v>
       </c>
       <c r="K11" s="15">
         <v>0</v>
       </c>
       <c r="L11" s="17">
-        <v>357.5745</v>
+        <v>143.02979999999999</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>26</v>
@@ -1219,42 +1456,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="15">
-        <v>84.846400000000003</v>
+        <v>33.938560000000003</v>
       </c>
       <c r="C12" s="15">
-        <v>70.6952</v>
+        <v>28.278080000000003</v>
       </c>
       <c r="D12" s="15">
-        <v>63.657600000000002</v>
+        <v>25.463040000000003</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>28.332800000000002</v>
+        <v>11.333120000000001</v>
       </c>
       <c r="G12" s="15">
-        <v>42.499200000000002</v>
+        <v>16.999680000000001</v>
       </c>
       <c r="H12" s="15">
-        <v>5.3048000000000002</v>
+        <v>2.1219200000000003</v>
       </c>
       <c r="I12" s="16">
-        <v>35.324799999999996</v>
+        <v>14.129919999999998</v>
       </c>
       <c r="J12" s="15">
-        <v>1.7631999999999999</v>
+        <v>0.70528000000000002</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
       </c>
       <c r="L12" s="17">
-        <v>332.42399999999998</v>
+        <v>132.96959999999999</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>26</v>
@@ -1263,42 +1500,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15">
-        <v>84.846400000000003</v>
+        <v>33.938560000000003</v>
       </c>
       <c r="C13" s="15">
-        <v>70.6952</v>
+        <v>28.278080000000003</v>
       </c>
       <c r="D13" s="15">
-        <v>63.657600000000002</v>
+        <v>25.463040000000003</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>28.332800000000002</v>
+        <v>11.333120000000001</v>
       </c>
       <c r="G13" s="15">
-        <v>42.499200000000002</v>
+        <v>16.999680000000001</v>
       </c>
       <c r="H13" s="15">
-        <v>5.3048000000000002</v>
+        <v>2.1219200000000003</v>
       </c>
       <c r="I13" s="16">
-        <v>35.324799999999996</v>
+        <v>14.129919999999998</v>
       </c>
       <c r="J13" s="15">
-        <v>1.7631999999999999</v>
+        <v>0.70528000000000002</v>
       </c>
       <c r="K13" s="15">
         <v>0</v>
       </c>
       <c r="L13" s="17">
-        <v>332.42399999999998</v>
+        <v>132.96959999999999</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>26</v>
@@ -1307,42 +1544,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="15">
-        <v>69.775000000000006</v>
+        <v>27.910000000000004</v>
       </c>
       <c r="C14" s="15">
-        <v>58.137500000000003</v>
+        <v>23.255000000000003</v>
       </c>
       <c r="D14" s="15">
-        <v>52.35</v>
+        <v>20.94</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <v>23.3</v>
+        <v>9.32</v>
       </c>
       <c r="G14" s="15">
-        <v>34.950000000000003</v>
+        <v>13.980000000000002</v>
       </c>
       <c r="H14" s="15">
-        <v>4.3624999999999998</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="I14" s="16">
-        <v>29.05</v>
+        <v>11.620000000000001</v>
       </c>
       <c r="J14" s="15">
-        <v>1.45</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K14" s="15">
         <v>0</v>
       </c>
       <c r="L14" s="17">
-        <v>273.37500000000006</v>
+        <v>109.35000000000002</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>26</v>
@@ -1351,42 +1588,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15">
-        <v>65.309399999999997</v>
+        <v>26.123760000000001</v>
       </c>
       <c r="C15" s="15">
-        <v>54.416699999999999</v>
+        <v>21.766680000000001</v>
       </c>
       <c r="D15" s="15">
-        <v>48.999600000000001</v>
+        <v>19.59984</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>21.808800000000002</v>
+        <v>8.7235200000000006</v>
       </c>
       <c r="G15" s="15">
-        <v>32.713200000000001</v>
+        <v>13.085280000000001</v>
       </c>
       <c r="H15" s="15">
-        <v>4.0833000000000004</v>
+        <v>1.6333200000000003</v>
       </c>
       <c r="I15" s="16">
-        <v>27.190799999999999</v>
+        <v>10.87632</v>
       </c>
       <c r="J15" s="15">
-        <v>1.3572</v>
+        <v>0.54288000000000003</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
       </c>
       <c r="L15" s="17">
-        <v>255.87900000000002</v>
+        <v>102.35160000000002</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>26</v>
@@ -1395,42 +1632,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="15">
-        <v>41.306800000000003</v>
+        <v>16.522720000000003</v>
       </c>
       <c r="C16" s="15">
-        <v>34.417400000000001</v>
+        <v>13.766960000000001</v>
       </c>
       <c r="D16" s="15">
-        <v>30.991199999999999</v>
+        <v>12.39648</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
       </c>
       <c r="F16" s="16">
-        <v>13.793600000000001</v>
+        <v>5.5174400000000006</v>
       </c>
       <c r="G16" s="15">
-        <v>20.690400000000004</v>
+        <v>8.2761600000000026</v>
       </c>
       <c r="H16" s="15">
-        <v>2.5826000000000002</v>
+        <v>1.0330400000000002</v>
       </c>
       <c r="I16" s="16">
-        <v>17.197600000000001</v>
+        <v>6.8790400000000007</v>
       </c>
       <c r="J16" s="15">
-        <v>0.85839999999999994</v>
+        <v>0.34336</v>
       </c>
       <c r="K16" s="15">
         <v>0</v>
       </c>
       <c r="L16" s="17">
-        <v>161.83799999999999</v>
+        <v>64.735200000000006</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>26</v>
@@ -1444,37 +1681,37 @@
         <v>1</v>
       </c>
       <c r="B17" s="15">
-        <v>162.99440000000001</v>
+        <v>105.94636000000001</v>
       </c>
       <c r="C17" s="15">
-        <v>135.8092</v>
+        <v>88.275980000000004</v>
       </c>
       <c r="D17" s="15">
-        <v>122.28960000000001</v>
+        <v>79.488240000000005</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
       </c>
       <c r="F17" s="16">
-        <v>54.428800000000003</v>
+        <v>35.378720000000001</v>
       </c>
       <c r="G17" s="15">
-        <v>81.643200000000007</v>
+        <v>53.068080000000009</v>
       </c>
       <c r="H17" s="15">
-        <v>10.190799999999999</v>
+        <v>6.6240199999999998</v>
       </c>
       <c r="I17" s="16">
-        <v>67.860799999999998</v>
+        <v>44.109520000000003</v>
       </c>
       <c r="J17" s="15">
-        <v>3.3872</v>
+        <v>2.2016800000000001</v>
       </c>
       <c r="K17" s="15">
         <v>0</v>
       </c>
       <c r="L17" s="17">
-        <v>638.60400000000004</v>
+        <v>415.09260000000006</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>26</v>
@@ -1488,37 +1725,37 @@
         <v>2</v>
       </c>
       <c r="B18" s="15">
-        <v>257.33019999999999</v>
+        <v>167.26463000000001</v>
       </c>
       <c r="C18" s="15">
-        <v>214.4111</v>
+        <v>139.36721500000002</v>
       </c>
       <c r="D18" s="15">
-        <v>193.0668</v>
+        <v>125.49342</v>
       </c>
       <c r="E18" s="16">
         <v>0</v>
       </c>
       <c r="F18" s="16">
-        <v>85.930400000000006</v>
+        <v>55.854760000000006</v>
       </c>
       <c r="G18" s="15">
-        <v>128.8956</v>
+        <v>83.782139999999998</v>
       </c>
       <c r="H18" s="15">
-        <v>16.088899999999999</v>
+        <v>10.457784999999999</v>
       </c>
       <c r="I18" s="16">
-        <v>107.13639999999999</v>
+        <v>69.638660000000002</v>
       </c>
       <c r="J18" s="15">
-        <v>5.3475999999999999</v>
+        <v>3.47594</v>
       </c>
       <c r="K18" s="15">
         <v>0</v>
       </c>
       <c r="L18" s="17">
-        <v>1008.2069999999999</v>
+        <v>655.33454999999992</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>26</v>
@@ -1532,37 +1769,37 @@
         <v>3</v>
       </c>
       <c r="B19" s="15">
-        <v>356.68979999999999</v>
+        <v>231.84836999999999</v>
       </c>
       <c r="C19" s="15">
-        <v>297.19889999999998</v>
+        <v>193.17928499999999</v>
       </c>
       <c r="D19" s="15">
-        <v>267.61320000000001</v>
+        <v>173.94858000000002</v>
       </c>
       <c r="E19" s="16">
         <v>0</v>
       </c>
       <c r="F19" s="16">
-        <v>119.1096</v>
+        <v>77.421239999999997</v>
       </c>
       <c r="G19" s="15">
-        <v>178.6644</v>
+        <v>116.13186</v>
       </c>
       <c r="H19" s="15">
-        <v>22.301100000000002</v>
+        <v>14.495715000000002</v>
       </c>
       <c r="I19" s="16">
-        <v>148.50360000000001</v>
+        <v>96.527340000000009</v>
       </c>
       <c r="J19" s="15">
-        <v>7.4123999999999999</v>
+        <v>4.81806</v>
       </c>
       <c r="K19" s="15">
         <v>0</v>
       </c>
       <c r="L19" s="17">
-        <v>1397.4929999999999</v>
+        <v>908.37045000000001</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>26</v>
@@ -1576,37 +1813,37 @@
         <v>4</v>
       </c>
       <c r="B20" s="15">
-        <v>360.03900000000004</v>
+        <v>234.02535000000003</v>
       </c>
       <c r="C20" s="15">
-        <v>299.98950000000002</v>
+        <v>194.99317500000001</v>
       </c>
       <c r="D20" s="15">
-        <v>270.12599999999998</v>
+        <v>175.58189999999999</v>
       </c>
       <c r="E20" s="16">
         <v>0</v>
       </c>
       <c r="F20" s="16">
-        <v>120.22800000000001</v>
+        <v>78.148200000000003</v>
       </c>
       <c r="G20" s="15">
-        <v>180.34200000000001</v>
+        <v>117.22230000000002</v>
       </c>
       <c r="H20" s="15">
-        <v>22.5105</v>
+        <v>14.631825000000001</v>
       </c>
       <c r="I20" s="16">
-        <v>149.898</v>
+        <v>97.433700000000002</v>
       </c>
       <c r="J20" s="15">
-        <v>7.4819999999999993</v>
+        <v>4.8632999999999997</v>
       </c>
       <c r="K20" s="15">
         <v>0</v>
       </c>
       <c r="L20" s="17">
-        <v>1410.6150000000002</v>
+        <v>916.89975000000015</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>26</v>
@@ -1620,37 +1857,37 @@
         <v>5</v>
       </c>
       <c r="B21" s="15">
-        <v>338.26920000000001</v>
+        <v>219.87498000000002</v>
       </c>
       <c r="C21" s="15">
-        <v>281.85059999999999</v>
+        <v>183.20289</v>
       </c>
       <c r="D21" s="15">
-        <v>253.7928</v>
+        <v>164.96531999999999</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
       </c>
       <c r="F21" s="16">
-        <v>112.95840000000001</v>
+        <v>73.422960000000003</v>
       </c>
       <c r="G21" s="15">
-        <v>169.43760000000003</v>
+        <v>110.13444000000003</v>
       </c>
       <c r="H21" s="15">
-        <v>21.1494</v>
+        <v>13.747110000000001</v>
       </c>
       <c r="I21" s="16">
-        <v>140.83439999999999</v>
+        <v>91.542360000000002</v>
       </c>
       <c r="J21" s="15">
-        <v>7.0295999999999994</v>
+        <v>4.5692399999999997</v>
       </c>
       <c r="K21" s="15">
         <v>0</v>
       </c>
       <c r="L21" s="17">
-        <v>1325.3219999999999</v>
+        <v>861.45929999999998</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>26</v>
@@ -1664,37 +1901,37 @@
         <v>6</v>
       </c>
       <c r="B22" s="15">
-        <v>300.3116</v>
+        <v>195.20254</v>
       </c>
       <c r="C22" s="15">
-        <v>250.22380000000001</v>
+        <v>162.64547000000002</v>
       </c>
       <c r="D22" s="15">
-        <v>225.31440000000001</v>
+        <v>146.45436000000001</v>
       </c>
       <c r="E22" s="16">
         <v>0</v>
       </c>
       <c r="F22" s="16">
-        <v>100.28320000000001</v>
+        <v>65.184080000000009</v>
       </c>
       <c r="G22" s="15">
-        <v>150.4248</v>
+        <v>97.776120000000006</v>
       </c>
       <c r="H22" s="15">
-        <v>18.776199999999999</v>
+        <v>12.20453</v>
       </c>
       <c r="I22" s="16">
-        <v>125.0312</v>
+        <v>81.27028</v>
       </c>
       <c r="J22" s="15">
-        <v>6.2407999999999992</v>
+        <v>4.0565199999999999</v>
       </c>
       <c r="K22" s="15">
         <v>0</v>
       </c>
       <c r="L22" s="17">
-        <v>1176.606</v>
+        <v>764.79390000000001</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>26</v>
@@ -1708,37 +1945,37 @@
         <v>7</v>
       </c>
       <c r="B23" s="15">
-        <v>281.33280000000002</v>
+        <v>182.86632000000003</v>
       </c>
       <c r="C23" s="15">
-        <v>234.41040000000001</v>
+        <v>152.36676</v>
       </c>
       <c r="D23" s="15">
-        <v>211.0752</v>
+        <v>137.19888</v>
       </c>
       <c r="E23" s="16">
         <v>0</v>
       </c>
       <c r="F23" s="16">
-        <v>93.945599999999999</v>
+        <v>61.064640000000004</v>
       </c>
       <c r="G23" s="15">
-        <v>140.91839999999999</v>
+        <v>91.596959999999996</v>
       </c>
       <c r="H23" s="15">
-        <v>17.589600000000001</v>
+        <v>11.433240000000001</v>
       </c>
       <c r="I23" s="16">
-        <v>117.1296</v>
+        <v>76.134240000000005</v>
       </c>
       <c r="J23" s="15">
-        <v>5.8463999999999992</v>
+        <v>3.8001599999999995</v>
       </c>
       <c r="K23" s="15">
         <v>0</v>
       </c>
       <c r="L23" s="17">
-        <v>1102.248</v>
+        <v>716.46120000000008</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>26</v>
@@ -1752,37 +1989,37 @@
         <v>8</v>
       </c>
       <c r="B24" s="15">
-        <v>342.17660000000001</v>
+        <v>222.41479000000001</v>
       </c>
       <c r="C24" s="15">
-        <v>285.10630000000003</v>
+        <v>185.31909500000003</v>
       </c>
       <c r="D24" s="15">
-        <v>256.7244</v>
+        <v>166.87086000000002</v>
       </c>
       <c r="E24" s="16">
         <v>0</v>
       </c>
       <c r="F24" s="16">
-        <v>114.26320000000001</v>
+        <v>74.271080000000012</v>
       </c>
       <c r="G24" s="15">
-        <v>171.39480000000003</v>
+        <v>111.40662000000002</v>
       </c>
       <c r="H24" s="15">
-        <v>21.393699999999999</v>
+        <v>13.905905000000001</v>
       </c>
       <c r="I24" s="16">
-        <v>142.46119999999999</v>
+        <v>92.599779999999996</v>
       </c>
       <c r="J24" s="15">
-        <v>7.1107999999999993</v>
+        <v>4.62202</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
       </c>
       <c r="L24" s="17">
-        <v>1340.6310000000001</v>
+        <v>871.41015000000004</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>26</v>
@@ -1796,37 +2033,37 @@
         <v>9</v>
       </c>
       <c r="B25" s="15">
-        <v>356.96890000000002</v>
+        <v>232.02978500000003</v>
       </c>
       <c r="C25" s="15">
-        <v>297.43144999999998</v>
+        <v>193.3304425</v>
       </c>
       <c r="D25" s="15">
-        <v>267.82260000000002</v>
+        <v>174.08469000000002</v>
       </c>
       <c r="E25" s="16">
         <v>0</v>
       </c>
       <c r="F25" s="16">
-        <v>119.20280000000001</v>
+        <v>77.481820000000013</v>
       </c>
       <c r="G25" s="15">
-        <v>178.80420000000001</v>
+        <v>116.22273000000001</v>
       </c>
       <c r="H25" s="15">
-        <v>22.318550000000002</v>
+        <v>14.507057500000002</v>
       </c>
       <c r="I25" s="16">
-        <v>148.6198</v>
+        <v>96.602869999999996</v>
       </c>
       <c r="J25" s="15">
-        <v>7.4181999999999997</v>
+        <v>4.8218300000000003</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
       </c>
       <c r="L25" s="17">
-        <v>1398.5865000000001</v>
+        <v>909.08122500000013</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>26</v>
@@ -1840,37 +2077,37 @@
         <v>11</v>
       </c>
       <c r="B26" s="15">
-        <v>365.06280000000004</v>
+        <v>237.29082000000002</v>
       </c>
       <c r="C26" s="15">
-        <v>304.17540000000002</v>
+        <v>197.71401000000003</v>
       </c>
       <c r="D26" s="15">
-        <v>273.89519999999999</v>
+        <v>178.03188</v>
       </c>
       <c r="E26" s="16">
         <v>0</v>
       </c>
       <c r="F26" s="16">
-        <v>121.90560000000001</v>
+        <v>79.238640000000004</v>
       </c>
       <c r="G26" s="15">
-        <v>182.85840000000002</v>
+        <v>118.85796000000002</v>
       </c>
       <c r="H26" s="15">
-        <v>22.8246</v>
+        <v>14.835990000000001</v>
       </c>
       <c r="I26" s="16">
-        <v>151.9896</v>
+        <v>98.793239999999997</v>
       </c>
       <c r="J26" s="15">
-        <v>7.5863999999999994</v>
+        <v>4.9311599999999993</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
       </c>
       <c r="L26" s="17">
-        <v>1430.298</v>
+        <v>929.69370000000004</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>26</v>
@@ -1884,37 +2121,37 @@
         <v>12</v>
       </c>
       <c r="B27" s="15">
-        <v>338.82740000000001</v>
+        <v>220.23781000000002</v>
       </c>
       <c r="C27" s="15">
-        <v>282.31569999999999</v>
+        <v>183.50520499999999</v>
       </c>
       <c r="D27" s="15">
-        <v>254.2116</v>
+        <v>165.23754</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
       </c>
       <c r="F27" s="16">
-        <v>113.1448</v>
+        <v>73.544120000000007</v>
       </c>
       <c r="G27" s="15">
-        <v>169.71719999999999</v>
+        <v>110.31618</v>
       </c>
       <c r="H27" s="15">
-        <v>21.1843</v>
+        <v>13.769795</v>
       </c>
       <c r="I27" s="16">
-        <v>141.0668</v>
+        <v>91.693420000000003</v>
       </c>
       <c r="J27" s="15">
-        <v>7.0411999999999999</v>
+        <v>4.5767800000000003</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
       </c>
       <c r="L27" s="17">
-        <v>1327.5089999999998</v>
+        <v>862.8808499999999</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>26</v>
@@ -1928,37 +2165,37 @@
         <v>13</v>
       </c>
       <c r="B28" s="15">
-        <v>338.82740000000001</v>
+        <v>220.23781000000002</v>
       </c>
       <c r="C28" s="15">
-        <v>282.31569999999999</v>
+        <v>183.50520499999999</v>
       </c>
       <c r="D28" s="15">
-        <v>254.2116</v>
+        <v>165.23754</v>
       </c>
       <c r="E28" s="16">
         <v>0</v>
       </c>
       <c r="F28" s="16">
-        <v>113.1448</v>
+        <v>73.544120000000007</v>
       </c>
       <c r="G28" s="15">
-        <v>169.71719999999999</v>
+        <v>110.31618</v>
       </c>
       <c r="H28" s="15">
-        <v>21.1843</v>
+        <v>13.769795</v>
       </c>
       <c r="I28" s="16">
-        <v>141.0668</v>
+        <v>91.693420000000003</v>
       </c>
       <c r="J28" s="15">
-        <v>7.0411999999999999</v>
+        <v>4.5767800000000003</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>
       </c>
       <c r="L28" s="17">
-        <v>1327.5089999999998</v>
+        <v>862.8808499999999</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>26</v>
@@ -1972,37 +2209,37 @@
         <v>14</v>
       </c>
       <c r="B29" s="15">
-        <v>279.10000000000002</v>
+        <v>181.41500000000002</v>
       </c>
       <c r="C29" s="15">
-        <v>232.55</v>
+        <v>151.1575</v>
       </c>
       <c r="D29" s="15">
-        <v>209.4</v>
+        <v>136.11000000000001</v>
       </c>
       <c r="E29" s="16">
         <v>0</v>
       </c>
       <c r="F29" s="16">
-        <v>93.2</v>
+        <v>60.580000000000005</v>
       </c>
       <c r="G29" s="15">
-        <v>139.80000000000001</v>
+        <v>90.87</v>
       </c>
       <c r="H29" s="15">
-        <v>17.45</v>
+        <v>11.342499999999999</v>
       </c>
       <c r="I29" s="16">
-        <v>116.2</v>
+        <v>75.53</v>
       </c>
       <c r="J29" s="15">
-        <v>5.8</v>
+        <v>3.77</v>
       </c>
       <c r="K29" s="15">
         <v>0</v>
       </c>
       <c r="L29" s="17">
-        <v>1093.5000000000002</v>
+        <v>710.7750000000002</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>26</v>
@@ -2016,37 +2253,37 @@
         <v>15</v>
       </c>
       <c r="B30" s="15">
-        <v>261.79579999999999</v>
+        <v>170.16727</v>
       </c>
       <c r="C30" s="15">
-        <v>218.1319</v>
+        <v>141.78573500000002</v>
       </c>
       <c r="D30" s="15">
-        <v>196.41720000000001</v>
+        <v>127.67118000000001</v>
       </c>
       <c r="E30" s="16">
         <v>0</v>
       </c>
       <c r="F30" s="16">
-        <v>87.421599999999998</v>
+        <v>56.824040000000004</v>
       </c>
       <c r="G30" s="15">
-        <v>131.13239999999999</v>
+        <v>85.236059999999995</v>
       </c>
       <c r="H30" s="15">
-        <v>16.368100000000002</v>
+        <v>10.639265000000002</v>
       </c>
       <c r="I30" s="16">
-        <v>108.9956</v>
+        <v>70.847139999999996</v>
       </c>
       <c r="J30" s="15">
-        <v>5.4403999999999995</v>
+        <v>3.53626</v>
       </c>
       <c r="K30" s="15">
         <v>0</v>
       </c>
       <c r="L30" s="17">
-        <v>1025.703</v>
+        <v>666.70695000000001</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>26</v>
@@ -2060,37 +2297,37 @@
         <v>16</v>
       </c>
       <c r="B31" s="15">
-        <v>164.66900000000001</v>
+        <v>107.03485000000001</v>
       </c>
       <c r="C31" s="15">
-        <v>137.2045</v>
+        <v>89.182924999999997</v>
       </c>
       <c r="D31" s="15">
-        <v>123.54600000000001</v>
+        <v>80.304900000000004</v>
       </c>
       <c r="E31" s="16">
         <v>0</v>
       </c>
       <c r="F31" s="16">
-        <v>54.988</v>
+        <v>35.742200000000004</v>
       </c>
       <c r="G31" s="15">
-        <v>82.481999999999999</v>
+        <v>53.613300000000002</v>
       </c>
       <c r="H31" s="15">
-        <v>10.295500000000001</v>
+        <v>6.6920750000000009</v>
       </c>
       <c r="I31" s="16">
-        <v>68.557999999999993</v>
+        <v>44.5627</v>
       </c>
       <c r="J31" s="15">
-        <v>3.4219999999999997</v>
+        <v>2.2242999999999999</v>
       </c>
       <c r="K31" s="15">
         <v>0</v>
       </c>
       <c r="L31" s="17">
-        <v>645.16499999999996</v>
+        <v>419.35724999999996</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>26</v>
@@ -2098,6 +2335,1332 @@
       <c r="N31" s="14" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="32" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="15">
+        <v>79.540109999999999</v>
+      </c>
+      <c r="C32" s="15">
+        <v>32.701500000000003</v>
+      </c>
+      <c r="D32" s="15">
+        <v>76.571820000000002</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1.4464125000000001</v>
+      </c>
+      <c r="F32" s="16">
+        <v>42.46164000000001</v>
+      </c>
+      <c r="G32" s="15">
+        <v>17.658810000000003</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1.7734274999999999</v>
+      </c>
+      <c r="I32" s="16">
+        <v>48.297600000000003</v>
+      </c>
+      <c r="J32" s="15">
+        <v>7.3578375000000005</v>
+      </c>
+      <c r="K32" s="15">
+        <v>11.772539999999999</v>
+      </c>
+      <c r="L32" s="17">
+        <v>307.80915750000003</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="15">
+        <v>150.24242999999998</v>
+      </c>
+      <c r="C33" s="15">
+        <v>61.769500000000001</v>
+      </c>
+      <c r="D33" s="15">
+        <v>144.63566</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2.7321124999999999</v>
+      </c>
+      <c r="F33" s="16">
+        <v>80.205320000000015</v>
+      </c>
+      <c r="G33" s="15">
+        <v>33.355529999999995</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3.3498075000000003</v>
+      </c>
+      <c r="I33" s="16">
+        <v>91.228800000000007</v>
+      </c>
+      <c r="J33" s="15">
+        <v>13.898137500000001</v>
+      </c>
+      <c r="K33" s="15">
+        <v>22.237020000000001</v>
+      </c>
+      <c r="L33" s="17">
+        <v>581.4172974999999</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="15">
+        <v>134.00556</v>
+      </c>
+      <c r="C34" s="15">
+        <v>55.094000000000008</v>
+      </c>
+      <c r="D34" s="15">
+        <v>129.00472000000002</v>
+      </c>
+      <c r="E34" s="16">
+        <v>2.4368500000000002</v>
+      </c>
+      <c r="F34" s="16">
+        <v>71.537440000000004</v>
+      </c>
+      <c r="G34" s="15">
+        <v>29.750760000000003</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2.9877899999999999</v>
+      </c>
+      <c r="I34" s="16">
+        <v>81.369600000000005</v>
+      </c>
+      <c r="J34" s="15">
+        <v>12.396150000000002</v>
+      </c>
+      <c r="K34" s="15">
+        <v>19.833840000000002</v>
+      </c>
+      <c r="L34" s="17">
+        <v>518.58286999999996</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="15">
+        <v>170.79543000000001</v>
+      </c>
+      <c r="C35" s="15">
+        <v>70.219499999999996</v>
+      </c>
+      <c r="D35" s="15">
+        <v>164.42166</v>
+      </c>
+      <c r="E35" s="16">
+        <v>3.1058625000000002</v>
+      </c>
+      <c r="F35" s="16">
+        <v>91.177320000000009</v>
+      </c>
+      <c r="G35" s="15">
+        <v>37.918529999999997</v>
+      </c>
+      <c r="H35" s="15">
+        <v>3.8080575000000003</v>
+      </c>
+      <c r="I35" s="16">
+        <v>103.7088</v>
+      </c>
+      <c r="J35" s="15">
+        <v>15.799387500000002</v>
+      </c>
+      <c r="K35" s="15">
+        <v>25.279019999999999</v>
+      </c>
+      <c r="L35" s="17">
+        <v>660.95454749999999</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="15">
+        <v>158.25809999999998</v>
+      </c>
+      <c r="C36" s="15">
+        <v>65.065000000000012</v>
+      </c>
+      <c r="D36" s="15">
+        <v>152.35220000000001</v>
+      </c>
+      <c r="E36" s="16">
+        <v>2.8778750000000004</v>
+      </c>
+      <c r="F36" s="16">
+        <v>84.484400000000008</v>
+      </c>
+      <c r="G36" s="15">
+        <v>35.135100000000001</v>
+      </c>
+      <c r="H36" s="15">
+        <v>3.5285249999999997</v>
+      </c>
+      <c r="I36" s="16">
+        <v>96.096000000000004</v>
+      </c>
+      <c r="J36" s="15">
+        <v>14.639625000000001</v>
+      </c>
+      <c r="K36" s="15">
+        <v>23.423400000000001</v>
+      </c>
+      <c r="L36" s="17">
+        <v>612.436825</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="15">
+        <v>152.70878999999999</v>
+      </c>
+      <c r="C37" s="15">
+        <v>62.783500000000004</v>
+      </c>
+      <c r="D37" s="15">
+        <v>147.00997999999998</v>
+      </c>
+      <c r="E37" s="16">
+        <v>2.7769624999999998</v>
+      </c>
+      <c r="F37" s="16">
+        <v>81.521960000000007</v>
+      </c>
+      <c r="G37" s="15">
+        <v>33.903089999999999</v>
+      </c>
+      <c r="H37" s="15">
+        <v>3.4047975000000004</v>
+      </c>
+      <c r="I37" s="16">
+        <v>92.726400000000012</v>
+      </c>
+      <c r="J37" s="15">
+        <v>14.126287500000002</v>
+      </c>
+      <c r="K37" s="15">
+        <v>22.602059999999998</v>
+      </c>
+      <c r="L37" s="17">
+        <v>590.96176750000006</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="15">
+        <v>133.18343999999999</v>
+      </c>
+      <c r="C38" s="15">
+        <v>54.756000000000007</v>
+      </c>
+      <c r="D38" s="15">
+        <v>128.21328000000003</v>
+      </c>
+      <c r="E38" s="16">
+        <v>2.4218999999999999</v>
+      </c>
+      <c r="F38" s="16">
+        <v>71.098560000000006</v>
+      </c>
+      <c r="G38" s="15">
+        <v>29.568239999999999</v>
+      </c>
+      <c r="H38" s="15">
+        <v>2.9694599999999998</v>
+      </c>
+      <c r="I38" s="16">
+        <v>80.870400000000004</v>
+      </c>
+      <c r="J38" s="15">
+        <v>12.3201</v>
+      </c>
+      <c r="K38" s="15">
+        <v>19.712160000000001</v>
+      </c>
+      <c r="L38" s="17">
+        <v>515.4013799999999</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="15">
+        <v>171.61754999999999</v>
+      </c>
+      <c r="C39" s="15">
+        <v>70.557500000000005</v>
+      </c>
+      <c r="D39" s="15">
+        <v>165.2131</v>
+      </c>
+      <c r="E39" s="16">
+        <v>3.1208125</v>
+      </c>
+      <c r="F39" s="16">
+        <v>91.616200000000006</v>
+      </c>
+      <c r="G39" s="15">
+        <v>38.101050000000001</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3.8263875000000001</v>
+      </c>
+      <c r="I39" s="16">
+        <v>104.208</v>
+      </c>
+      <c r="J39" s="15">
+        <v>15.875437500000002</v>
+      </c>
+      <c r="K39" s="15">
+        <v>25.400700000000004</v>
+      </c>
+      <c r="L39" s="17">
+        <v>664.13603749999993</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="15">
+        <v>153.73643999999999</v>
+      </c>
+      <c r="C40" s="15">
+        <v>63.20600000000001</v>
+      </c>
+      <c r="D40" s="15">
+        <v>147.99928</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2.7956500000000002</v>
+      </c>
+      <c r="F40" s="16">
+        <v>82.07056</v>
+      </c>
+      <c r="G40" s="15">
+        <v>34.131239999999998</v>
+      </c>
+      <c r="H40" s="15">
+        <v>3.4277099999999998</v>
+      </c>
+      <c r="I40" s="16">
+        <v>93.350400000000008</v>
+      </c>
+      <c r="J40" s="15">
+        <v>14.221350000000001</v>
+      </c>
+      <c r="K40" s="15">
+        <v>22.754159999999999</v>
+      </c>
+      <c r="L40" s="17">
+        <v>594.93862999999999</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="15">
+        <v>143.04888</v>
+      </c>
+      <c r="C41" s="15">
+        <v>58.812000000000005</v>
+      </c>
+      <c r="D41" s="15">
+        <v>137.71056000000002</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2.6013000000000002</v>
+      </c>
+      <c r="F41" s="16">
+        <v>76.365120000000005</v>
+      </c>
+      <c r="G41" s="15">
+        <v>31.758480000000002</v>
+      </c>
+      <c r="H41" s="15">
+        <v>3.1894199999999997</v>
+      </c>
+      <c r="I41" s="16">
+        <v>86.860800000000012</v>
+      </c>
+      <c r="J41" s="15">
+        <v>13.232700000000001</v>
+      </c>
+      <c r="K41" s="15">
+        <v>21.172320000000003</v>
+      </c>
+      <c r="L41" s="17">
+        <v>553.57925999999986</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="15">
+        <v>171.20648999999997</v>
+      </c>
+      <c r="C42" s="15">
+        <v>70.388500000000008</v>
+      </c>
+      <c r="D42" s="15">
+        <v>164.81738000000001</v>
+      </c>
+      <c r="E42" s="16">
+        <v>3.1133375000000001</v>
+      </c>
+      <c r="F42" s="16">
+        <v>91.39676</v>
+      </c>
+      <c r="G42" s="15">
+        <v>38.009790000000002</v>
+      </c>
+      <c r="H42" s="15">
+        <v>3.8172225000000002</v>
+      </c>
+      <c r="I42" s="16">
+        <v>103.95840000000001</v>
+      </c>
+      <c r="J42" s="15">
+        <v>15.837412500000003</v>
+      </c>
+      <c r="K42" s="15">
+        <v>25.339860000000002</v>
+      </c>
+      <c r="L42" s="17">
+        <v>662.54529250000019</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="15">
+        <v>140.58252000000002</v>
+      </c>
+      <c r="C43" s="15">
+        <v>57.798000000000002</v>
+      </c>
+      <c r="D43" s="15">
+        <v>135.33624</v>
+      </c>
+      <c r="E43" s="16">
+        <v>2.5564499999999999</v>
+      </c>
+      <c r="F43" s="16">
+        <v>75.048480000000012</v>
+      </c>
+      <c r="G43" s="15">
+        <v>31.210920000000002</v>
+      </c>
+      <c r="H43" s="15">
+        <v>3.13443</v>
+      </c>
+      <c r="I43" s="16">
+        <v>85.363200000000006</v>
+      </c>
+      <c r="J43" s="15">
+        <v>13.004550000000002</v>
+      </c>
+      <c r="K43" s="15">
+        <v>20.807280000000002</v>
+      </c>
+      <c r="L43" s="17">
+        <v>544.03478999999993</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="15">
+        <v>164.62952999999999</v>
+      </c>
+      <c r="C44" s="15">
+        <v>67.684500000000014</v>
+      </c>
+      <c r="D44" s="15">
+        <v>158.48586</v>
+      </c>
+      <c r="E44" s="16">
+        <v>2.9937375000000004</v>
+      </c>
+      <c r="F44" s="16">
+        <v>87.885720000000006</v>
+      </c>
+      <c r="G44" s="15">
+        <v>36.549630000000001</v>
+      </c>
+      <c r="H44" s="15">
+        <v>3.6705825000000001</v>
+      </c>
+      <c r="I44" s="16">
+        <v>99.964800000000011</v>
+      </c>
+      <c r="J44" s="15">
+        <v>15.2290125</v>
+      </c>
+      <c r="K44" s="15">
+        <v>24.366420000000002</v>
+      </c>
+      <c r="L44" s="17">
+        <v>637.09337249999999</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="15">
+        <v>159.28574999999998</v>
+      </c>
+      <c r="C45" s="15">
+        <v>65.487499999999997</v>
+      </c>
+      <c r="D45" s="15">
+        <v>153.3415</v>
+      </c>
+      <c r="E45" s="16">
+        <v>2.8965624999999999</v>
+      </c>
+      <c r="F45" s="16">
+        <v>85.033000000000001</v>
+      </c>
+      <c r="G45" s="15">
+        <v>35.363250000000001</v>
+      </c>
+      <c r="H45" s="15">
+        <v>3.5514375</v>
+      </c>
+      <c r="I45" s="16">
+        <v>96.720000000000013</v>
+      </c>
+      <c r="J45" s="15">
+        <v>14.734687500000001</v>
+      </c>
+      <c r="K45" s="15">
+        <v>23.575500000000002</v>
+      </c>
+      <c r="L45" s="17">
+        <v>616.41368749999992</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="22">
+        <v>130.51155</v>
+      </c>
+      <c r="C46" s="22">
+        <v>53.657499999999999</v>
+      </c>
+      <c r="D46" s="22">
+        <v>125.64110000000001</v>
+      </c>
+      <c r="E46" s="23">
+        <v>2.3733124999999999</v>
+      </c>
+      <c r="F46" s="23">
+        <v>69.672200000000004</v>
+      </c>
+      <c r="G46" s="22">
+        <v>28.97505</v>
+      </c>
+      <c r="H46" s="22">
+        <v>2.9098875</v>
+      </c>
+      <c r="I46" s="23">
+        <v>79.248000000000005</v>
+      </c>
+      <c r="J46" s="22">
+        <v>12.0729375</v>
+      </c>
+      <c r="K46" s="22">
+        <v>19.316700000000001</v>
+      </c>
+      <c r="L46" s="24">
+        <v>505.06153749999999</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="30">
+        <v>5.0907840000000002</v>
+      </c>
+      <c r="C47" s="31">
+        <v>8.4834240000000012</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1.9097280000000001</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1.059744</v>
+      </c>
+      <c r="F47" s="31">
+        <v>0.21158399999999999</v>
+      </c>
+      <c r="G47" s="31">
+        <v>0.63657600000000003</v>
+      </c>
+      <c r="H47" s="31">
+        <v>0.42499200000000004</v>
+      </c>
+      <c r="I47" s="31">
+        <v>0.42499200000000004</v>
+      </c>
+      <c r="J47" s="31">
+        <v>0</v>
+      </c>
+      <c r="K47" s="31">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <v>18.240000000000002</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="33">
+        <v>5.1242760000000009</v>
+      </c>
+      <c r="C48" s="34">
+        <v>8.5392360000000007</v>
+      </c>
+      <c r="D48" s="34">
+        <v>1.9222920000000001</v>
+      </c>
+      <c r="E48" s="34">
+        <v>1.066716</v>
+      </c>
+      <c r="F48" s="34">
+        <v>0.212976</v>
+      </c>
+      <c r="G48" s="34">
+        <v>0.640764</v>
+      </c>
+      <c r="H48" s="34">
+        <v>0.427788</v>
+      </c>
+      <c r="I48" s="34">
+        <v>0.427788</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0</v>
+      </c>
+      <c r="K48" s="34">
+        <v>0</v>
+      </c>
+      <c r="L48" s="35">
+        <v>18.36</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="33">
+        <v>5.6601480000000004</v>
+      </c>
+      <c r="C49" s="34">
+        <v>9.4322280000000003</v>
+      </c>
+      <c r="D49" s="34">
+        <v>2.1233160000000004</v>
+      </c>
+      <c r="E49" s="34">
+        <v>1.1782680000000001</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0.23524800000000001</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0.70777200000000007</v>
+      </c>
+      <c r="H49" s="34">
+        <v>0.47252400000000006</v>
+      </c>
+      <c r="I49" s="34">
+        <v>0.47252400000000006</v>
+      </c>
+      <c r="J49" s="34">
+        <v>0</v>
+      </c>
+      <c r="K49" s="34">
+        <v>0</v>
+      </c>
+      <c r="L49" s="35">
+        <v>20.28</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="33">
+        <v>6.4639560000000005</v>
+      </c>
+      <c r="C50" s="34">
+        <v>10.771716</v>
+      </c>
+      <c r="D50" s="34">
+        <v>2.424852</v>
+      </c>
+      <c r="E50" s="34">
+        <v>1.3455959999999998</v>
+      </c>
+      <c r="F50" s="34">
+        <v>0.26865600000000001</v>
+      </c>
+      <c r="G50" s="34">
+        <v>0.808284</v>
+      </c>
+      <c r="H50" s="34">
+        <v>0.539628</v>
+      </c>
+      <c r="I50" s="34">
+        <v>0.539628</v>
+      </c>
+      <c r="J50" s="34">
+        <v>0</v>
+      </c>
+      <c r="K50" s="34">
+        <v>0</v>
+      </c>
+      <c r="L50" s="35">
+        <v>23.16</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="33">
+        <v>6.2630039999999996</v>
+      </c>
+      <c r="C51" s="34">
+        <v>10.436843999999999</v>
+      </c>
+      <c r="D51" s="34">
+        <v>2.3494679999999999</v>
+      </c>
+      <c r="E51" s="34">
+        <v>1.3037639999999999</v>
+      </c>
+      <c r="F51" s="34">
+        <v>0.26030399999999998</v>
+      </c>
+      <c r="G51" s="34">
+        <v>0.78315599999999985</v>
+      </c>
+      <c r="H51" s="34">
+        <v>0.52285199999999998</v>
+      </c>
+      <c r="I51" s="34">
+        <v>0.52285199999999998</v>
+      </c>
+      <c r="J51" s="34">
+        <v>0</v>
+      </c>
+      <c r="K51" s="34">
+        <v>0</v>
+      </c>
+      <c r="L51" s="35">
+        <v>22.439999999999998</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="33">
+        <v>6.4304640000000006</v>
+      </c>
+      <c r="C52" s="34">
+        <v>10.715904</v>
+      </c>
+      <c r="D52" s="34">
+        <v>2.4122880000000007</v>
+      </c>
+      <c r="E52" s="34">
+        <v>1.338624</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0.267264</v>
+      </c>
+      <c r="G52" s="34">
+        <v>0.80409600000000014</v>
+      </c>
+      <c r="H52" s="34">
+        <v>0.53683200000000009</v>
+      </c>
+      <c r="I52" s="34">
+        <v>0.53683200000000009</v>
+      </c>
+      <c r="J52" s="34">
+        <v>0</v>
+      </c>
+      <c r="K52" s="34">
+        <v>0</v>
+      </c>
+      <c r="L52" s="35">
+        <v>23.040000000000003</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="33">
+        <v>7.7366520000000012</v>
+      </c>
+      <c r="C53" s="34">
+        <v>12.892572000000001</v>
+      </c>
+      <c r="D53" s="34">
+        <v>2.9022840000000003</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1.6105320000000001</v>
+      </c>
+      <c r="F53" s="34">
+        <v>0.32155199999999995</v>
+      </c>
+      <c r="G53" s="34">
+        <v>0.96742800000000007</v>
+      </c>
+      <c r="H53" s="34">
+        <v>0.64587600000000012</v>
+      </c>
+      <c r="I53" s="34">
+        <v>0.64587600000000012</v>
+      </c>
+      <c r="J53" s="34">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34">
+        <v>0</v>
+      </c>
+      <c r="L53" s="35">
+        <v>27.720000000000002</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="33">
+        <v>7.3347480000000003</v>
+      </c>
+      <c r="C54" s="34">
+        <v>12.222828000000002</v>
+      </c>
+      <c r="D54" s="34">
+        <v>2.7515160000000001</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1.5268680000000001</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0.30484799999999995</v>
+      </c>
+      <c r="G54" s="34">
+        <v>0.91717199999999999</v>
+      </c>
+      <c r="H54" s="34">
+        <v>0.61232400000000009</v>
+      </c>
+      <c r="I54" s="34">
+        <v>0.61232400000000009</v>
+      </c>
+      <c r="J54" s="34">
+        <v>0</v>
+      </c>
+      <c r="K54" s="34">
+        <v>0</v>
+      </c>
+      <c r="L54" s="35">
+        <v>26.28</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="33">
+        <v>6.7988760000000008</v>
+      </c>
+      <c r="C55" s="34">
+        <v>11.329836</v>
+      </c>
+      <c r="D55" s="34">
+        <v>2.5504919999999998</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1.415316</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0.28257599999999999</v>
+      </c>
+      <c r="G55" s="34">
+        <v>0.85016400000000003</v>
+      </c>
+      <c r="H55" s="34">
+        <v>0.56758799999999998</v>
+      </c>
+      <c r="I55" s="34">
+        <v>0.56758799999999998</v>
+      </c>
+      <c r="J55" s="34">
+        <v>0</v>
+      </c>
+      <c r="K55" s="34">
+        <v>0</v>
+      </c>
+      <c r="L55" s="35">
+        <v>24.36</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="33">
+        <v>8.3395080000000004</v>
+      </c>
+      <c r="C56" s="34">
+        <v>13.897188000000002</v>
+      </c>
+      <c r="D56" s="34">
+        <v>3.1284360000000002</v>
+      </c>
+      <c r="E56" s="34">
+        <v>1.7360279999999999</v>
+      </c>
+      <c r="F56" s="34">
+        <v>0.34660799999999997</v>
+      </c>
+      <c r="G56" s="34">
+        <v>1.0428120000000001</v>
+      </c>
+      <c r="H56" s="34">
+        <v>0.69620400000000005</v>
+      </c>
+      <c r="I56" s="34">
+        <v>0.69620400000000005</v>
+      </c>
+      <c r="J56" s="34">
+        <v>0</v>
+      </c>
+      <c r="K56" s="34">
+        <v>0</v>
+      </c>
+      <c r="L56" s="35">
+        <v>29.880000000000003</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="33">
+        <v>7.569192000000001</v>
+      </c>
+      <c r="C57" s="34">
+        <v>12.613512000000002</v>
+      </c>
+      <c r="D57" s="34">
+        <v>2.839464</v>
+      </c>
+      <c r="E57" s="34">
+        <v>1.5756720000000002</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0.31459199999999998</v>
+      </c>
+      <c r="G57" s="34">
+        <v>0.94648800000000011</v>
+      </c>
+      <c r="H57" s="34">
+        <v>0.63189600000000001</v>
+      </c>
+      <c r="I57" s="34">
+        <v>0.63189600000000001</v>
+      </c>
+      <c r="J57" s="34">
+        <v>0</v>
+      </c>
+      <c r="K57" s="34">
+        <v>0</v>
+      </c>
+      <c r="L57" s="35">
+        <v>27.12</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="33">
+        <v>8.3395080000000004</v>
+      </c>
+      <c r="C58" s="34">
+        <v>13.897188000000002</v>
+      </c>
+      <c r="D58" s="34">
+        <v>3.1284360000000002</v>
+      </c>
+      <c r="E58" s="34">
+        <v>1.7360279999999999</v>
+      </c>
+      <c r="F58" s="34">
+        <v>0.34660799999999997</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1.0428120000000001</v>
+      </c>
+      <c r="H58" s="34">
+        <v>0.69620400000000005</v>
+      </c>
+      <c r="I58" s="34">
+        <v>0.69620400000000005</v>
+      </c>
+      <c r="J58" s="34">
+        <v>0</v>
+      </c>
+      <c r="K58" s="34">
+        <v>0</v>
+      </c>
+      <c r="L58" s="35">
+        <v>29.880000000000003</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="33">
+        <v>9.2772839999999999</v>
+      </c>
+      <c r="C59" s="34">
+        <v>15.459924000000001</v>
+      </c>
+      <c r="D59" s="34">
+        <v>3.4802280000000003</v>
+      </c>
+      <c r="E59" s="34">
+        <v>1.9312440000000002</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0.38558399999999998</v>
+      </c>
+      <c r="G59" s="34">
+        <v>1.1600760000000001</v>
+      </c>
+      <c r="H59" s="34">
+        <v>0.77449200000000018</v>
+      </c>
+      <c r="I59" s="34">
+        <v>0.77449200000000018</v>
+      </c>
+      <c r="J59" s="34">
+        <v>0</v>
+      </c>
+      <c r="K59" s="34">
+        <v>0</v>
+      </c>
+      <c r="L59" s="35">
+        <v>33.24</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="33">
+        <v>8.9423640000000013</v>
+      </c>
+      <c r="C60" s="34">
+        <v>14.901804000000002</v>
+      </c>
+      <c r="D60" s="34">
+        <v>3.3545880000000006</v>
+      </c>
+      <c r="E60" s="34">
+        <v>1.8615240000000002</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0.37166399999999999</v>
+      </c>
+      <c r="G60" s="34">
+        <v>1.1181960000000002</v>
+      </c>
+      <c r="H60" s="34">
+        <v>0.74653200000000008</v>
+      </c>
+      <c r="I60" s="34">
+        <v>0.74653200000000008</v>
+      </c>
+      <c r="J60" s="34">
+        <v>0</v>
+      </c>
+      <c r="K60" s="34">
+        <v>0</v>
+      </c>
+      <c r="L60" s="35">
+        <v>32.04</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="36">
+        <v>9.2437920000000009</v>
+      </c>
+      <c r="C61" s="37">
+        <v>15.404112000000001</v>
+      </c>
+      <c r="D61" s="37">
+        <v>3.4676640000000001</v>
+      </c>
+      <c r="E61" s="37">
+        <v>1.924272</v>
+      </c>
+      <c r="F61" s="37">
+        <v>0.38419199999999998</v>
+      </c>
+      <c r="G61" s="37">
+        <v>1.155888</v>
+      </c>
+      <c r="H61" s="37">
+        <v>0.77169600000000005</v>
+      </c>
+      <c r="I61" s="37">
+        <v>0.77169600000000005</v>
+      </c>
+      <c r="J61" s="37">
+        <v>0</v>
+      </c>
+      <c r="K61" s="37">
+        <v>0</v>
+      </c>
+      <c r="L61" s="38">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="M61" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
